--- a/specificJobs/diamond2/girders/MotionCalcs.xlsx
+++ b/specificJobs/diamond2/girders/MotionCalcs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Jack Specification</t>
   </si>
@@ -102,6 +102,24 @@
   </si>
   <si>
     <t>Motor revs over range</t>
+  </si>
+  <si>
+    <t>Motor Speed (revs/s)</t>
+  </si>
+  <si>
+    <t>Gearbox speed (revs/s)</t>
+  </si>
+  <si>
+    <t>Jacks speed (mm/s)</t>
+  </si>
+  <si>
+    <t>time for mm move</t>
+  </si>
+  <si>
+    <t>time fo full range (s)</t>
+  </si>
+  <si>
+    <t>time fo full range (m)</t>
   </si>
 </sst>
 </file>
@@ -590,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +763,7 @@
         <v>1.123046875</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -753,18 +771,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>3.68E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
@@ -775,7 +793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <f>A19/E9</f>
         <v>8</v>
@@ -787,6 +805,51 @@
       <c r="C23" s="9">
         <f>A19/C14</f>
         <v>327.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f>A27/A9</f>
+        <v>0.2</v>
+      </c>
+      <c r="C27">
+        <f>B27*B4</f>
+        <v>4.6000000000000006E-2</v>
+      </c>
+      <c r="D27">
+        <f>1/C27</f>
+        <v>21.739130434782606</v>
+      </c>
+      <c r="E27">
+        <f>A4/C27</f>
+        <v>391.30434782608688</v>
+      </c>
+      <c r="F27">
+        <f>E27/60</f>
+        <v>6.5217391304347814</v>
       </c>
     </row>
   </sheetData>
